--- a/natmiOut/OldD4/LR-pairs_lrc2p/Apod-Lepr.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Apod-Lepr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.70907919503524</v>
+        <v>1.83734</v>
       </c>
       <c r="H2">
-        <v>1.70907919503524</v>
+        <v>5.51202</v>
       </c>
       <c r="I2">
-        <v>0.004267216889816475</v>
+        <v>0.004181525035852653</v>
       </c>
       <c r="J2">
-        <v>0.004267216889816475</v>
+        <v>0.004333705660616419</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.92962030383012</v>
+        <v>5.107026333333333</v>
       </c>
       <c r="N2">
-        <v>2.92962030383012</v>
+        <v>15.321079</v>
       </c>
       <c r="O2">
-        <v>0.6826722874421388</v>
+        <v>0.7595047782721978</v>
       </c>
       <c r="P2">
-        <v>0.6826722874421388</v>
+        <v>0.7857328653321021</v>
       </c>
       <c r="Q2">
-        <v>5.006953110628877</v>
+        <v>9.383343763286666</v>
       </c>
       <c r="R2">
-        <v>5.006953110628877</v>
+        <v>84.45009386957999</v>
       </c>
       <c r="S2">
-        <v>0.002913110715182742</v>
+        <v>0.003175888245194913</v>
       </c>
       <c r="T2">
-        <v>0.002913110715182742</v>
+        <v>0.003405134966222089</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.70907919503524</v>
+        <v>1.83734</v>
       </c>
       <c r="H3">
-        <v>1.70907919503524</v>
+        <v>5.51202</v>
       </c>
       <c r="I3">
-        <v>0.004267216889816475</v>
+        <v>0.004181525035852653</v>
       </c>
       <c r="J3">
-        <v>0.004267216889816475</v>
+        <v>0.004333705660616419</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.741276026949687</v>
+        <v>0.9303800000000001</v>
       </c>
       <c r="N3">
-        <v>0.741276026949687</v>
+        <v>2.79114</v>
       </c>
       <c r="O3">
-        <v>0.172735217694309</v>
+        <v>0.1383638950511686</v>
       </c>
       <c r="P3">
-        <v>0.172735217694309</v>
+        <v>0.1431420352145592</v>
       </c>
       <c r="Q3">
-        <v>1.266899435438092</v>
+        <v>1.7094243892</v>
       </c>
       <c r="R3">
-        <v>1.266899435438092</v>
+        <v>15.3848195028</v>
       </c>
       <c r="S3">
-        <v>0.0007370986384112808</v>
+        <v>0.0005785720912145504</v>
       </c>
       <c r="T3">
-        <v>0.0007370986384112808</v>
+        <v>0.00062033544828149</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.70907919503524</v>
+        <v>1.83734</v>
       </c>
       <c r="H4">
-        <v>1.70907919503524</v>
+        <v>5.51202</v>
       </c>
       <c r="I4">
-        <v>0.004267216889816475</v>
+        <v>0.004181525035852653</v>
       </c>
       <c r="J4">
-        <v>0.004267216889816475</v>
+        <v>0.004333705660616419</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.620504327663393</v>
+        <v>0.01338166666666667</v>
       </c>
       <c r="N4">
-        <v>0.620504327663393</v>
+        <v>0.040145</v>
       </c>
       <c r="O4">
-        <v>0.1445924948635522</v>
+        <v>0.001990089557252292</v>
       </c>
       <c r="P4">
-        <v>0.1445924948635522</v>
+        <v>0.002058813604365413</v>
       </c>
       <c r="Q4">
-        <v>1.060491036838834</v>
+        <v>0.02458667143333333</v>
       </c>
       <c r="R4">
-        <v>1.060491036838834</v>
+        <v>0.2212800429</v>
       </c>
       <c r="S4">
-        <v>0.0006170075362224519</v>
+        <v>8.32160930723938E-06</v>
       </c>
       <c r="T4">
-        <v>0.0006170075362224519</v>
+        <v>8.922292171392483E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>355.693760436178</v>
+        <v>1.83734</v>
       </c>
       <c r="H5">
-        <v>355.693760436178</v>
+        <v>5.51202</v>
       </c>
       <c r="I5">
-        <v>0.888093674386047</v>
+        <v>0.004181525035852653</v>
       </c>
       <c r="J5">
-        <v>0.888093674386047</v>
+        <v>0.004333705660616419</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.92962030383012</v>
+        <v>0.673365</v>
       </c>
       <c r="N5">
-        <v>2.92962030383012</v>
+        <v>1.34673</v>
       </c>
       <c r="O5">
-        <v>0.6826722874421388</v>
+        <v>0.1001412371193814</v>
       </c>
       <c r="P5">
-        <v>0.6826722874421388</v>
+        <v>0.06906628584897329</v>
       </c>
       <c r="Q5">
-        <v>1042.047662519514</v>
+        <v>1.2372004491</v>
       </c>
       <c r="R5">
-        <v>1042.047662519514</v>
+        <v>7.4232026946</v>
       </c>
       <c r="S5">
-        <v>0.6062769401560167</v>
+        <v>0.0004187430901359506</v>
       </c>
       <c r="T5">
-        <v>0.6062769401560167</v>
+        <v>0.0002993129539414472</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>355.693760436178</v>
+        <v>386.6044363333334</v>
       </c>
       <c r="H6">
-        <v>355.693760436178</v>
+        <v>1159.813309</v>
       </c>
       <c r="I6">
-        <v>0.888093674386047</v>
+        <v>0.8798568199133185</v>
       </c>
       <c r="J6">
-        <v>0.888093674386047</v>
+        <v>0.9118779508186764</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.741276026949687</v>
+        <v>5.107026333333333</v>
       </c>
       <c r="N6">
-        <v>0.741276026949687</v>
+        <v>15.321079</v>
       </c>
       <c r="O6">
-        <v>0.172735217694309</v>
+        <v>0.7595047782721978</v>
       </c>
       <c r="P6">
-        <v>0.172735217694309</v>
+        <v>0.7857328653321021</v>
       </c>
       <c r="Q6">
-        <v>263.6672575469238</v>
+        <v>1974.399036937823</v>
       </c>
       <c r="R6">
-        <v>263.6672575469238</v>
+        <v>17769.59133244041</v>
       </c>
       <c r="S6">
-        <v>0.1534050541780126</v>
+        <v>0.6682554589195461</v>
       </c>
       <c r="T6">
-        <v>0.1534050541780126</v>
+        <v>0.7164924751299243</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>355.693760436178</v>
+        <v>386.6044363333334</v>
       </c>
       <c r="H7">
-        <v>355.693760436178</v>
+        <v>1159.813309</v>
       </c>
       <c r="I7">
-        <v>0.888093674386047</v>
+        <v>0.8798568199133185</v>
       </c>
       <c r="J7">
-        <v>0.888093674386047</v>
+        <v>0.9118779508186764</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.620504327663393</v>
+        <v>0.9303800000000001</v>
       </c>
       <c r="N7">
-        <v>0.620504327663393</v>
+        <v>2.79114</v>
       </c>
       <c r="O7">
-        <v>0.1445924948635522</v>
+        <v>0.1383638950511686</v>
       </c>
       <c r="P7">
-        <v>0.1445924948635522</v>
+        <v>0.1431420352145592</v>
       </c>
       <c r="Q7">
-        <v>220.7095176735146</v>
+        <v>359.6890354758067</v>
       </c>
       <c r="R7">
-        <v>220.7095176735146</v>
+        <v>3237.201319282261</v>
       </c>
       <c r="S7">
-        <v>0.1284116800520177</v>
+        <v>0.1217404166905413</v>
       </c>
       <c r="T7">
-        <v>0.1284116800520177</v>
+        <v>0.1305280657474671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.1109470276937</v>
+        <v>386.6044363333334</v>
       </c>
       <c r="H8">
-        <v>43.1109470276937</v>
+        <v>1159.813309</v>
       </c>
       <c r="I8">
-        <v>0.1076391087241365</v>
+        <v>0.8798568199133185</v>
       </c>
       <c r="J8">
-        <v>0.1076391087241365</v>
+        <v>0.9118779508186764</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>2.92962030383012</v>
+        <v>0.01338166666666667</v>
       </c>
       <c r="N8">
-        <v>2.92962030383012</v>
+        <v>0.040145</v>
       </c>
       <c r="O8">
-        <v>0.6826722874421388</v>
+        <v>0.001990089557252292</v>
       </c>
       <c r="P8">
-        <v>0.6826722874421388</v>
+        <v>0.002058813604365413</v>
       </c>
       <c r="Q8">
-        <v>126.2987057296762</v>
+        <v>5.173411698867223</v>
       </c>
       <c r="R8">
-        <v>126.2987057296762</v>
+        <v>46.56070528980501</v>
       </c>
       <c r="S8">
-        <v>0.07348223657093934</v>
+        <v>0.001750993869186705</v>
       </c>
       <c r="T8">
-        <v>0.07348223657093934</v>
+        <v>0.001877386730666346</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.1109470276937</v>
+        <v>386.6044363333334</v>
       </c>
       <c r="H9">
-        <v>43.1109470276937</v>
+        <v>1159.813309</v>
       </c>
       <c r="I9">
-        <v>0.1076391087241365</v>
+        <v>0.8798568199133185</v>
       </c>
       <c r="J9">
-        <v>0.1076391087241365</v>
+        <v>0.9118779508186764</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.741276026949687</v>
+        <v>0.673365</v>
       </c>
       <c r="N9">
-        <v>0.741276026949687</v>
+        <v>1.34673</v>
       </c>
       <c r="O9">
-        <v>0.172735217694309</v>
+        <v>0.1001412371193814</v>
       </c>
       <c r="P9">
-        <v>0.172735217694309</v>
+        <v>0.06906628584897329</v>
       </c>
       <c r="Q9">
-        <v>31.9571115307272</v>
+        <v>260.325896271595</v>
       </c>
       <c r="R9">
-        <v>31.9571115307272</v>
+        <v>1561.95537762957</v>
       </c>
       <c r="S9">
-        <v>0.01859306487788511</v>
+        <v>0.08810995043404453</v>
       </c>
       <c r="T9">
-        <v>0.01859306487788511</v>
+        <v>0.06298002321061871</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,743 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>4.525356666666666</v>
+      </c>
+      <c r="H10">
+        <v>13.57607</v>
+      </c>
+      <c r="I10">
+        <v>0.01029906941438676</v>
+      </c>
+      <c r="J10">
+        <v>0.01067388931969128</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.107026333333333</v>
+      </c>
+      <c r="N10">
+        <v>15.321079</v>
+      </c>
+      <c r="O10">
+        <v>0.7595047782721978</v>
+      </c>
+      <c r="P10">
+        <v>0.7857328653321021</v>
+      </c>
+      <c r="Q10">
+        <v>23.11111566439222</v>
+      </c>
+      <c r="R10">
+        <v>208.00004097953</v>
+      </c>
+      <c r="S10">
+        <v>0.007822192431983793</v>
+      </c>
+      <c r="T10">
+        <v>0.008386825639398753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>4.525356666666666</v>
+      </c>
+      <c r="H11">
+        <v>13.57607</v>
+      </c>
+      <c r="I11">
+        <v>0.01029906941438676</v>
+      </c>
+      <c r="J11">
+        <v>0.01067388931969128</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9303800000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.79114</v>
+      </c>
+      <c r="O11">
+        <v>0.1383638950511686</v>
+      </c>
+      <c r="P11">
+        <v>0.1431420352145592</v>
+      </c>
+      <c r="Q11">
+        <v>4.210301335533333</v>
+      </c>
+      <c r="R11">
+        <v>37.8927120198</v>
+      </c>
+      <c r="S11">
+        <v>0.00142501935957691</v>
+      </c>
+      <c r="T11">
+        <v>0.001527882240875557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>4.525356666666666</v>
+      </c>
+      <c r="H12">
+        <v>13.57607</v>
+      </c>
+      <c r="I12">
+        <v>0.01029906941438676</v>
+      </c>
+      <c r="J12">
+        <v>0.01067388931969128</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.01338166666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.040145</v>
+      </c>
+      <c r="O12">
+        <v>0.001990089557252292</v>
+      </c>
+      <c r="P12">
+        <v>0.002058813604365413</v>
+      </c>
+      <c r="Q12">
+        <v>0.06055681446111111</v>
+      </c>
+      <c r="R12">
+        <v>0.54501133015</v>
+      </c>
+      <c r="S12">
+        <v>2.049607049098757E-05</v>
+      </c>
+      <c r="T12">
+        <v>2.19755485428711E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>43.1109470276937</v>
-      </c>
-      <c r="H10">
-        <v>43.1109470276937</v>
-      </c>
-      <c r="I10">
-        <v>0.1076391087241365</v>
-      </c>
-      <c r="J10">
-        <v>0.1076391087241365</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.620504327663393</v>
-      </c>
-      <c r="N10">
-        <v>0.620504327663393</v>
-      </c>
-      <c r="O10">
-        <v>0.1445924948635522</v>
-      </c>
-      <c r="P10">
-        <v>0.1445924948635522</v>
-      </c>
-      <c r="Q10">
-        <v>26.75052920035123</v>
-      </c>
-      <c r="R10">
-        <v>26.75052920035123</v>
-      </c>
-      <c r="S10">
-        <v>0.01556380727531204</v>
-      </c>
-      <c r="T10">
-        <v>0.01556380727531204</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>4.525356666666666</v>
+      </c>
+      <c r="H13">
+        <v>13.57607</v>
+      </c>
+      <c r="I13">
+        <v>0.01029906941438676</v>
+      </c>
+      <c r="J13">
+        <v>0.01067388931969128</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.673365</v>
+      </c>
+      <c r="N13">
+        <v>1.34673</v>
+      </c>
+      <c r="O13">
+        <v>0.1001412371193814</v>
+      </c>
+      <c r="P13">
+        <v>0.06906628584897329</v>
+      </c>
+      <c r="Q13">
+        <v>3.047216791849999</v>
+      </c>
+      <c r="R13">
+        <v>18.2833007511</v>
+      </c>
+      <c r="S13">
+        <v>0.001031361552335074</v>
+      </c>
+      <c r="T13">
+        <v>0.0007372058908741012</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1387696666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.416309</v>
+      </c>
+      <c r="I14">
+        <v>0.000315820063452379</v>
+      </c>
+      <c r="J14">
+        <v>0.0003273138830892415</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>5.107026333333333</v>
+      </c>
+      <c r="N14">
+        <v>15.321079</v>
+      </c>
+      <c r="O14">
+        <v>0.7595047782721978</v>
+      </c>
+      <c r="P14">
+        <v>0.7857328653321021</v>
+      </c>
+      <c r="Q14">
+        <v>0.7087003419345554</v>
+      </c>
+      <c r="R14">
+        <v>6.378303077410999</v>
+      </c>
+      <c r="S14">
+        <v>0.0002398668472663105</v>
+      </c>
+      <c r="T14">
+        <v>0.0002571812752226864</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1387696666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.416309</v>
+      </c>
+      <c r="I15">
+        <v>0.000315820063452379</v>
+      </c>
+      <c r="J15">
+        <v>0.0003273138830892415</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9303800000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.79114</v>
+      </c>
+      <c r="O15">
+        <v>0.1383638950511686</v>
+      </c>
+      <c r="P15">
+        <v>0.1431420352145592</v>
+      </c>
+      <c r="Q15">
+        <v>0.1291085224733333</v>
+      </c>
+      <c r="R15">
+        <v>1.16197670226</v>
+      </c>
+      <c r="S15">
+        <v>4.369809411457836E-05</v>
+      </c>
+      <c r="T15">
+        <v>4.685237537937432E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1387696666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.416309</v>
+      </c>
+      <c r="I16">
+        <v>0.000315820063452379</v>
+      </c>
+      <c r="J16">
+        <v>0.0003273138830892415</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.01338166666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.040145</v>
+      </c>
+      <c r="O16">
+        <v>0.001990089557252292</v>
+      </c>
+      <c r="P16">
+        <v>0.002058813604365413</v>
+      </c>
+      <c r="Q16">
+        <v>0.001856969422777778</v>
+      </c>
+      <c r="R16">
+        <v>0.016712724805</v>
+      </c>
+      <c r="S16">
+        <v>6.285102102473356E-07</v>
+      </c>
+      <c r="T16">
+        <v>6.738782754018007E-07</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1387696666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.416309</v>
+      </c>
+      <c r="I17">
+        <v>0.000315820063452379</v>
+      </c>
+      <c r="J17">
+        <v>0.0003273138830892415</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.673365</v>
+      </c>
+      <c r="N17">
+        <v>1.34673</v>
+      </c>
+      <c r="O17">
+        <v>0.1001412371193814</v>
+      </c>
+      <c r="P17">
+        <v>0.06906628584897329</v>
+      </c>
+      <c r="Q17">
+        <v>0.09344263659499999</v>
+      </c>
+      <c r="R17">
+        <v>0.56065581957</v>
+      </c>
+      <c r="S17">
+        <v>3.162661186124278E-05</v>
+      </c>
+      <c r="T17">
+        <v>2.260635421177897E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>46.288812</v>
+      </c>
+      <c r="H18">
+        <v>92.577624</v>
+      </c>
+      <c r="I18">
+        <v>0.1053467655729896</v>
+      </c>
+      <c r="J18">
+        <v>0.07278714031792673</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>5.107026333333333</v>
+      </c>
+      <c r="N18">
+        <v>15.321079</v>
+      </c>
+      <c r="O18">
+        <v>0.7595047782721978</v>
+      </c>
+      <c r="P18">
+        <v>0.7857328653321021</v>
+      </c>
+      <c r="Q18">
+        <v>236.398181822716</v>
+      </c>
+      <c r="R18">
+        <v>1418.389090936296</v>
+      </c>
+      <c r="S18">
+        <v>0.08001137182820668</v>
+      </c>
+      <c r="T18">
+        <v>0.05719124832133434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>46.288812</v>
+      </c>
+      <c r="H19">
+        <v>92.577624</v>
+      </c>
+      <c r="I19">
+        <v>0.1053467655729896</v>
+      </c>
+      <c r="J19">
+        <v>0.07278714031792673</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.9303800000000001</v>
+      </c>
+      <c r="N19">
+        <v>2.79114</v>
+      </c>
+      <c r="O19">
+        <v>0.1383638950511686</v>
+      </c>
+      <c r="P19">
+        <v>0.1431420352145592</v>
+      </c>
+      <c r="Q19">
+        <v>43.06618490856</v>
+      </c>
+      <c r="R19">
+        <v>258.3971094513601</v>
+      </c>
+      <c r="S19">
+        <v>0.01457618881572119</v>
+      </c>
+      <c r="T19">
+        <v>0.01041889940255573</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>46.288812</v>
+      </c>
+      <c r="H20">
+        <v>92.577624</v>
+      </c>
+      <c r="I20">
+        <v>0.1053467655729896</v>
+      </c>
+      <c r="J20">
+        <v>0.07278714031792673</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.01338166666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.040145</v>
+      </c>
+      <c r="O20">
+        <v>0.001990089557252292</v>
+      </c>
+      <c r="P20">
+        <v>0.002058813604365413</v>
+      </c>
+      <c r="Q20">
+        <v>0.61942145258</v>
+      </c>
+      <c r="R20">
+        <v>3.71652871548</v>
+      </c>
+      <c r="S20">
+        <v>0.0002096494980571119</v>
+      </c>
+      <c r="T20">
+        <v>0.0001498551547094018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>46.288812</v>
+      </c>
+      <c r="H21">
+        <v>92.577624</v>
+      </c>
+      <c r="I21">
+        <v>0.1053467655729896</v>
+      </c>
+      <c r="J21">
+        <v>0.07278714031792673</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.673365</v>
+      </c>
+      <c r="N21">
+        <v>1.34673</v>
+      </c>
+      <c r="O21">
+        <v>0.1001412371193814</v>
+      </c>
+      <c r="P21">
+        <v>0.06906628584897329</v>
+      </c>
+      <c r="Q21">
+        <v>31.16926589238</v>
+      </c>
+      <c r="R21">
+        <v>124.67706356952</v>
+      </c>
+      <c r="S21">
+        <v>0.01054955543100464</v>
+      </c>
+      <c r="T21">
+        <v>0.005027137439327255</v>
       </c>
     </row>
   </sheetData>
